--- a/test/regression/xlsx_files/chart_axis33.xlsx
+++ b/test/regression/xlsx_files/chart_axis33.xlsx
@@ -157,11 +157,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68827008"/>
-        <c:axId val="68898816"/>
+        <c:axId val="143682944"/>
+        <c:axId val="143946496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68827008"/>
+        <c:axId val="143682944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -169,7 +169,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-2700000"/>
+              <a:bodyPr rot="-2700000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -185,14 +185,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68898816"/>
+        <c:crossAx val="143946496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68898816"/>
+        <c:axId val="143946496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -218,7 +218,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68827008"/>
+        <c:crossAx val="143682944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -231,7 +231,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
